--- a/planilha/planilha.xlsx
+++ b/planilha/planilha.xlsx
@@ -457,6 +457,12 @@
       <c r="F4">
         <v>61</v>
       </c>
+      <c r="G4" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -477,6 +483,12 @@
       <c r="F5">
         <v>36</v>
       </c>
+      <c r="G5" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -497,6 +509,12 @@
       <c r="F6">
         <v>51</v>
       </c>
+      <c r="G6" t="str">
+        <v>Failed due to Absences</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -517,6 +535,12 @@
       <c r="F7">
         <v>62</v>
       </c>
+      <c r="G7" t="str">
+        <v>Failed due to Absences</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -537,6 +561,12 @@
       <c r="F8">
         <v>41</v>
       </c>
+      <c r="G8" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -557,6 +587,12 @@
       <c r="F9">
         <v>77</v>
       </c>
+      <c r="G9" t="str">
+        <v>Failed due to Absences</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -577,6 +613,12 @@
       <c r="F10">
         <v>80</v>
       </c>
+      <c r="G10" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -597,6 +639,12 @@
       <c r="F11">
         <v>89</v>
       </c>
+      <c r="G11" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -617,6 +665,12 @@
       <c r="F12">
         <v>68</v>
       </c>
+      <c r="G12" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -637,6 +691,12 @@
       <c r="F13">
         <v>85</v>
       </c>
+      <c r="G13" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -657,6 +717,12 @@
       <c r="F14">
         <v>39</v>
       </c>
+      <c r="G14" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -677,6 +743,12 @@
       <c r="F15">
         <v>57</v>
       </c>
+      <c r="G15" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -697,6 +769,12 @@
       <c r="F16">
         <v>89</v>
       </c>
+      <c r="G16" t="str">
+        <v>Failed due to Absences</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -717,6 +795,12 @@
       <c r="F17">
         <v>62</v>
       </c>
+      <c r="G17" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -737,6 +821,12 @@
       <c r="F18">
         <v>32</v>
       </c>
+      <c r="G18" t="str">
+        <v>Failed due to Absences</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -757,6 +847,12 @@
       <c r="F19">
         <v>76</v>
       </c>
+      <c r="G19" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -777,6 +873,12 @@
       <c r="F20">
         <v>87</v>
       </c>
+      <c r="G20" t="str">
+        <v>Failed due to Absences</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -797,6 +899,12 @@
       <c r="F21">
         <v>50</v>
       </c>
+      <c r="G21" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -817,6 +925,12 @@
       <c r="F22">
         <v>48</v>
       </c>
+      <c r="G22" t="str">
+        <v>Failed due to Grades</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -837,6 +951,12 @@
       <c r="F23">
         <v>92</v>
       </c>
+      <c r="G23" t="str">
+        <v>Failed due to Absences</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -857,6 +977,12 @@
       <c r="F24">
         <v>98</v>
       </c>
+      <c r="G24" t="str">
+        <v>Failed due to Absences</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -877,6 +1003,12 @@
       <c r="F25">
         <v>100</v>
       </c>
+      <c r="G25" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -897,6 +1029,12 @@
       <c r="F26">
         <v>75</v>
       </c>
+      <c r="G26" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -916,6 +1054,12 @@
       </c>
       <c r="F27">
         <v>84</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
